--- a/Tables/censoring_imp.xlsx
+++ b/Tables/censoring_imp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C33B87-E8B6-4AC4-B1FF-E2A490931592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29022C01-6AE9-4710-8C19-8BD8C42BC2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
+    <workbookView xWindow="-20985" yWindow="-12990" windowWidth="21600" windowHeight="11175" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="censoring_imp" sheetId="1" r:id="rId1"/>
@@ -304,16 +304,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-408.7***</v>
+            <v>-408.3***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-191.8***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.49</v>
+            <v>-0.42</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-248.6**</v>
+            <v>-248.1**</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.063***</v>
@@ -327,7 +327,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(107.1)</v>
+            <v>(107.2)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(37.6)</v>
@@ -342,7 +342,7 @@
             <v>(0.023)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.077)</v>
+            <v>(0.078)</v>
           </cell>
         </row>
         <row r="8">
@@ -393,19 +393,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>1898.5</v>
+            <v>1898.1</v>
           </cell>
           <cell r="C10" t="str">
-            <v>593.4</v>
+            <v>593.5</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.82</v>
+            <v>5.75</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1305.1</v>
+            <v>1304.7</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.44</v>
+            <v>0.43</v>
           </cell>
           <cell r="G10" t="str">
             <v>1.88</v>
@@ -435,22 +435,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-226.5**</v>
+            <v>-226.1**</v>
           </cell>
           <cell r="C5" t="str">
             <v>-207.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>1.31</v>
+            <v>1.38</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-50.4</v>
+            <v>-50.0</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0089</v>
+            <v>0.0094</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.092</v>
+            <v>0.095</v>
           </cell>
         </row>
         <row r="6">
@@ -524,19 +524,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>1898.5</v>
+            <v>1898.1</v>
           </cell>
           <cell r="C10" t="str">
-            <v>593.4</v>
+            <v>593.5</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.82</v>
+            <v>5.75</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1305.1</v>
+            <v>1304.7</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.44</v>
+            <v>0.43</v>
           </cell>
           <cell r="G10" t="str">
             <v>1.88</v>
@@ -823,16 +823,16 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-525.3***</v>
+            <v>-529.7***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-172.8***</v>
+            <v>-172.4***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.56</v>
+            <v>-1.26</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-384.6***</v>
+            <v>-389.4***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.12***</v>
@@ -843,16 +843,16 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(122.0)</v>
+            <v>(120.5)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(37.3)</v>
+            <v>(37.4)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.01)</v>
+            <v>(3.22)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(111.6)</v>
+            <v>(110.2)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.025)</v>
@@ -863,39 +863,39 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-46.2</v>
+            <v>-61.5</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-31.6</v>
+            <v>-30.6</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-3.97*</v>
+            <v>-4.52</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-15.9</v>
+            <v>-32.3</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.011</v>
+            <v>-0.016</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.0096</v>
+            <v>-0.039</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(126.9)</v>
+            <v>(124.6)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(41.8)</v>
+            <v>(42.0)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(2.40)</v>
+            <v>(2.78)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(116.6)</v>
+            <v>(114.5)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.024)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="G9" t="str">
             <v>(0.11)</v>
@@ -938,21 +938,21 @@
             <v>0.016</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.026</v>
+            <v>0.024</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>2073.6</v>
+            <v>2077.4</v>
           </cell>
           <cell r="C13" t="str">
-            <v>567.4</v>
+            <v>567.5</v>
           </cell>
           <cell r="D13" t="str">
-            <v>6.87</v>
+            <v>7.51</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1506.2</v>
+            <v>1509.9</v>
           </cell>
           <cell r="F13" t="str">
             <v>0.51</v>
@@ -1256,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,23 +1266,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F25623-A49A-42A8-9EBE-088BF1D1E7B9}">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -1314,7 +1314,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>[1]decomposition_main_te_0_0!A2</f>
         <v/>
@@ -1344,13 +1344,13 @@
         <v>(6)</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B5</f>
-        <v>-408.7***</v>
+        <v>-408.3***</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C5</f>
@@ -1358,11 +1358,11 @@
       </c>
       <c r="D5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D5</f>
-        <v>-0.49</v>
+        <v>-0.42</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E5</f>
-        <v>-248.6**</v>
+        <v>-248.1**</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!F5</f>
@@ -1373,14 +1373,14 @@
         <v>-0.37***</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]decomposition_main_te_0_0!A6</f>
         <v/>
       </c>
       <c r="B6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B6</f>
-        <v>(107.1)</v>
+        <v>(107.2)</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C6</f>
@@ -1400,10 +1400,10 @@
       </c>
       <c r="G6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G6</f>
-        <v>(0.077)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>(0.078)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]decomposition_main_te_0_0!A9</f>
         <v>R-sq</v>
@@ -1462,38 +1462,38 @@
         <v>0.022</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="str">
         <f>[1]decomposition_main_te_0_0!A10</f>
         <v>Control Mean</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!B10</f>
-        <v>1898.5</v>
+        <v>1898.1</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!C10</f>
-        <v>593.4</v>
+        <v>593.5</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!D10</f>
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!E10</f>
-        <v>1305.1</v>
+        <v>1304.7</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!F10</f>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!G10</f>
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>37</v>
@@ -1504,7 +1504,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="str">
         <f>[2]decomposition_main_te_0_1!A2</f>
         <v/>
@@ -1539,13 +1539,13 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B5</f>
-        <v>-226.5**</v>
+        <v>-226.1**</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C5</f>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D5</f>
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E5</f>
-        <v>-50.4</v>
+        <v>-50.0</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!F5</f>
-        <v>0.0089</v>
+        <v>0.0094</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G5</f>
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[2]decomposition_main_te_0_1!A6</f>
         <v/>
@@ -1598,7 +1598,7 @@
         <v>(0.096)</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[2]decomposition_main_te_0_1!A9</f>
         <v>R-sq</v>
@@ -1657,38 +1657,38 @@
         <v>0.014</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="str">
         <f>[2]decomposition_main_te_0_1!A10</f>
         <v>Control Mean</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!B10</f>
-        <v>1898.5</v>
+        <v>1898.1</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!C10</f>
-        <v>593.4</v>
+        <v>593.5</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!D10</f>
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!E10</f>
-        <v>1305.1</v>
+        <v>1304.7</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!F10</f>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!G10</f>
         <v>1.88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
         <v>38</v>
@@ -1699,7 +1699,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="str">
         <f>[3]decomposition_main_te_1_0!A2</f>
         <v/>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>-1.17***</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>[3]decomposition_main_te_1_0!A6</f>
         <v/>
@@ -1782,7 +1782,7 @@
         <v>(0.10)</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>[3]decomposition_main_te_1_0!A9</f>
         <v>R-sq</v>
@@ -1841,7 +1841,7 @@
         <v>0.082</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="str">
         <f>[3]decomposition_main_te_1_0!A10</f>
         <v>Control Mean</v>
@@ -1871,8 +1871,8 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="9" t="s">
         <v>39</v>
@@ -1883,7 +1883,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="str">
         <f>[4]decomposition_main_te_1_1!A2</f>
         <v/>
@@ -1907,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>-0.71***</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[4]decomposition_main_te_1_1!A6</f>
         <v/>
@@ -1966,7 +1966,7 @@
         <v>(0.12)</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[4]decomposition_main_te_1_1!A9</f>
         <v>R-sq</v>
@@ -2025,7 +2025,7 @@
         <v>0.030</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="str">
         <f>[4]decomposition_main_te_1_1!A10</f>
         <v>Control Mean</v>
@@ -2055,8 +2055,8 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="9" t="s">
         <v>40</v>
@@ -2067,7 +2067,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
@@ -2090,25 +2090,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B5</f>
-        <v>-525.3***</v>
+        <v>-529.7***</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C5</f>
-        <v>-172.8***</v>
+        <v>-172.4***</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D5</f>
-        <v>-0.56</v>
+        <v>-1.26</v>
       </c>
       <c r="E41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E5</f>
-        <v>-384.6***</v>
+        <v>-389.4***</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F5</f>
@@ -2119,25 +2119,25 @@
         <v>-0.62***</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B6</f>
-        <v>(122.0)</v>
+        <v>(120.5)</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C6</f>
-        <v>(37.3)</v>
+        <v>(37.4)</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D6</f>
-        <v>(3.01)</v>
+        <v>(3.22)</v>
       </c>
       <c r="E42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E6</f>
-        <v>(111.6)</v>
+        <v>(110.2)</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F6</f>
@@ -2148,62 +2148,62 @@
         <v>(0.11)</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B8</f>
-        <v>-46.2</v>
+        <v>-61.5</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C8</f>
-        <v>-31.6</v>
+        <v>-30.6</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D8</f>
-        <v>-3.97*</v>
+        <v>-4.52</v>
       </c>
       <c r="E43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E8</f>
-        <v>-15.9</v>
+        <v>-32.3</v>
       </c>
       <c r="F43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F8</f>
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G8</f>
-        <v>-0.0096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B9</f>
-        <v>(126.9)</v>
+        <v>(124.6)</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C9</f>
-        <v>(41.8)</v>
+        <v>(42.0)</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D9</f>
-        <v>(2.40)</v>
+        <v>(2.78)</v>
       </c>
       <c r="E44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E9</f>
-        <v>(116.6)</v>
+        <v>(114.5)</v>
       </c>
       <c r="F44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F9</f>
-        <v>(0.024)</v>
+        <v>(0.023)</v>
       </c>
       <c r="G44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G9</f>
         <v>(0.11)</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2258,28 +2258,28 @@
       </c>
       <c r="G47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G12</f>
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!B13</f>
-        <v>2073.6</v>
+        <v>2077.4</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!C13</f>
-        <v>567.4</v>
+        <v>567.5</v>
       </c>
       <c r="D48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!D13</f>
-        <v>6.87</v>
+        <v>7.51</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!E13</f>
-        <v>1506.2</v>
+        <v>1509.9</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!F13</f>
@@ -2290,7 +2290,7 @@
         <v>2.28</v>
       </c>
     </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:G3"/>

--- a/Tables/censoring_imp.xlsx
+++ b/Tables/censoring_imp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29022C01-6AE9-4710-8C19-8BD8C42BC2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2814A1-930E-4CDF-8C66-2487B984D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20985" yWindow="-12990" windowWidth="21600" windowHeight="11175" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="censoring_imp" sheetId="1" r:id="rId1"/>
@@ -304,22 +304,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-408.3***</v>
+            <v>-234.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-191.8***</v>
+            <v>-191.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.42</v>
+            <v>0.025</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-248.1**</v>
+            <v>-74.7**</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.063***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.37***</v>
+            <v>-0.14***</v>
           </cell>
         </row>
         <row r="6">
@@ -327,22 +327,22 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(107.2)</v>
+            <v>(48.1)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(37.6)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.01)</v>
+            <v>(2.77)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(101.4)</v>
+            <v>(30.5)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.023)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.078)</v>
+            <v>(0.022)</v>
           </cell>
         </row>
         <row r="8">
@@ -370,7 +370,7 @@
             <v>R-sq</v>
           </cell>
           <cell r="B9" t="str">
-            <v>0.012</v>
+            <v>0.016</v>
           </cell>
           <cell r="C9" t="str">
             <v>0.025</v>
@@ -385,7 +385,7 @@
             <v>0.019</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.022</v>
+            <v>0.042</v>
           </cell>
         </row>
         <row r="10">
@@ -393,22 +393,22 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>1898.1</v>
+            <v>988.8</v>
           </cell>
           <cell r="C10" t="str">
-            <v>593.5</v>
+            <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.75</v>
+            <v>5.32</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1304.7</v>
+            <v>395.4</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="G10" t="str">
-            <v>1.88</v>
+            <v>0.61</v>
           </cell>
         </row>
       </sheetData>
@@ -435,22 +435,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-226.1**</v>
+            <v>-190.0***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-207.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>1.38</v>
+            <v>1.82</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-50.0</v>
+            <v>-14.0</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0094</v>
+            <v>0.0089</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.095</v>
+            <v>-0.074***</v>
           </cell>
         </row>
         <row r="6">
@@ -458,22 +458,22 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(110.8)</v>
+            <v>(49.7)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(37.4)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.45)</v>
+            <v>(3.24)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(103.3)</v>
+            <v>(31.2)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.024)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.096)</v>
+            <v>(0.026)</v>
           </cell>
         </row>
         <row r="8">
@@ -501,13 +501,13 @@
             <v>R-sq</v>
           </cell>
           <cell r="B9" t="str">
-            <v>0.009</v>
+            <v>0.013</v>
           </cell>
           <cell r="C9" t="str">
             <v>0.026</v>
           </cell>
           <cell r="D9" t="str">
-            <v>0.004</v>
+            <v>0.003</v>
           </cell>
           <cell r="E9" t="str">
             <v>0.009</v>
@@ -516,7 +516,7 @@
             <v>0.014</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.014</v>
+            <v>0.023</v>
           </cell>
         </row>
         <row r="10">
@@ -524,22 +524,22 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>1898.1</v>
+            <v>988.8</v>
           </cell>
           <cell r="C10" t="str">
-            <v>593.5</v>
+            <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.75</v>
+            <v>5.32</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1304.7</v>
+            <v>395.4</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="G10" t="str">
-            <v>1.88</v>
+            <v>0.61</v>
           </cell>
         </row>
       </sheetData>
@@ -566,7 +566,7 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-804.2***</v>
+            <v>-319.0***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-140.4***</v>
@@ -575,13 +575,13 @@
             <v>-2.33</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-695.5***</v>
+            <v>-210.3***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.21***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-1.17***</v>
+            <v>-0.24***</v>
           </cell>
         </row>
         <row r="6">
@@ -589,7 +589,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(113.3)</v>
+            <v>(50.9)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(34.1)</v>
@@ -598,13 +598,13 @@
             <v>(3.16)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(100.8)</v>
+            <v>(30.3)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.023)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.10)</v>
+            <v>(0.027)</v>
           </cell>
         </row>
         <row r="8">
@@ -632,7 +632,7 @@
             <v>R-sq</v>
           </cell>
           <cell r="B9" t="str">
-            <v>0.022</v>
+            <v>0.021</v>
           </cell>
           <cell r="C9" t="str">
             <v>0.020</v>
@@ -641,13 +641,13 @@
             <v>0.004</v>
           </cell>
           <cell r="E9" t="str">
-            <v>0.022</v>
+            <v>0.021</v>
           </cell>
           <cell r="F9" t="str">
             <v>0.053</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.082</v>
+            <v>0.061</v>
           </cell>
         </row>
         <row r="10">
@@ -655,7 +655,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>2272.4</v>
+            <v>1069.2</v>
           </cell>
           <cell r="C10" t="str">
             <v>545.9</v>
@@ -664,13 +664,13 @@
             <v>7.69</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1726.5</v>
+            <v>523.3</v>
           </cell>
           <cell r="F10" t="str">
             <v>0.57</v>
           </cell>
           <cell r="G10" t="str">
-            <v>2.62</v>
+            <v>0.70</v>
           </cell>
         </row>
       </sheetData>
@@ -697,7 +697,7 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-622.0***</v>
+            <v>-274.2***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-156.3***</v>
@@ -706,13 +706,13 @@
             <v>-0.53</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-497.3***</v>
+            <v>-149.6***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.13***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.71***</v>
+            <v>-0.17***</v>
           </cell>
         </row>
         <row r="6">
@@ -720,7 +720,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(117.3)</v>
+            <v>(52.5)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(33.8)</v>
@@ -729,13 +729,13 @@
             <v>(3.58)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(103.1)</v>
+            <v>(31.1)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.024)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.12)</v>
+            <v>(0.030)</v>
           </cell>
         </row>
         <row r="8">
@@ -763,7 +763,7 @@
             <v>R-sq</v>
           </cell>
           <cell r="B9" t="str">
-            <v>0.015</v>
+            <v>0.017</v>
           </cell>
           <cell r="C9" t="str">
             <v>0.021</v>
@@ -778,7 +778,7 @@
             <v>0.028</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.030</v>
+            <v>0.032</v>
           </cell>
         </row>
         <row r="10">
@@ -786,7 +786,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>2272.4</v>
+            <v>1069.2</v>
           </cell>
           <cell r="C10" t="str">
             <v>545.9</v>
@@ -795,13 +795,13 @@
             <v>7.69</v>
           </cell>
           <cell r="E10" t="str">
-            <v>1726.5</v>
+            <v>523.3</v>
           </cell>
           <cell r="F10" t="str">
             <v>0.57</v>
           </cell>
           <cell r="G10" t="str">
-            <v>2.62</v>
+            <v>0.70</v>
           </cell>
         </row>
       </sheetData>
@@ -823,82 +823,82 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-529.7***</v>
+            <v>-263.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-172.4***</v>
+            <v>-170.9***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-1.26</v>
+            <v>-1.28</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-389.4***</v>
+            <v>-124.8***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.12***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.62***</v>
+            <v>-0.16***</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(120.5)</v>
+            <v>(53.1)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(37.4)</v>
+            <v>(37.3)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.22)</v>
+            <v>(3.09)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(110.2)</v>
+            <v>(32.4)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.025)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.11)</v>
+            <v>(0.027)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-61.5</v>
+            <v>-37.3</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-30.6</v>
+            <v>-30.7</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-4.52</v>
+            <v>-1.83</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-32.3</v>
+            <v>-7.91</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.016</v>
+            <v>-0.012</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.039</v>
+            <v>0.0086</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(124.6)</v>
+            <v>(56.4)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(42.0)</v>
+            <v>(41.9)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(2.78)</v>
+            <v>(2.93)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(114.5)</v>
+            <v>(34.5)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.023)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.11)</v>
+            <v>(0.028)</v>
           </cell>
         </row>
         <row r="11">
@@ -923,42 +923,42 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.012</v>
+            <v>0.018</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.022</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.003</v>
+            <v>0.002</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.009</v>
+            <v>0.010</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.016</v>
+            <v>0.017</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.024</v>
+            <v>0.043</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>2077.4</v>
+            <v>1029.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>567.5</v>
+            <v>565.8</v>
           </cell>
           <cell r="D13" t="str">
-            <v>7.51</v>
+            <v>7.06</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1509.9</v>
+            <v>463.9</v>
           </cell>
           <cell r="F13" t="str">
             <v>0.51</v>
           </cell>
           <cell r="G13" t="str">
-            <v>2.28</v>
+            <v>0.66</v>
           </cell>
         </row>
       </sheetData>
@@ -1266,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F25623-A49A-42A8-9EBE-088BF1D1E7B9}">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G48"/>
     </sheetView>
   </sheetViews>
@@ -1350,19 +1350,19 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B5</f>
-        <v>-408.3***</v>
+        <v>-234.8***</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C5</f>
-        <v>-191.8***</v>
+        <v>-191.7***</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D5</f>
-        <v>-0.42</v>
+        <v>0.025</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E5</f>
-        <v>-248.1**</v>
+        <v>-74.7**</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!F5</f>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="G5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G5</f>
-        <v>-0.37***</v>
+        <v>-0.14***</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B6</f>
-        <v>(107.2)</v>
+        <v>(48.1)</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C6</f>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D6</f>
-        <v>(3.01)</v>
+        <v>(2.77)</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E6</f>
-        <v>(101.4)</v>
+        <v>(30.5)</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!F6</f>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="G6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G6</f>
-        <v>(0.078)</v>
+        <v>(0.022)</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B9</f>
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C9</f>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G9" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G9</f>
-        <v>0.022</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!B10</f>
-        <v>1898.1</v>
+        <v>988.8</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!C10</f>
-        <v>593.5</v>
+        <v>593.4</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!D10</f>
-        <v>5.75</v>
+        <v>5.32</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!E10</f>
-        <v>1304.7</v>
+        <v>395.4</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!F10</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!G10</f>
-        <v>1.88</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B5</f>
-        <v>-226.1**</v>
+        <v>-190.0***</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C5</f>
@@ -1553,19 +1553,19 @@
       </c>
       <c r="D14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D5</f>
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E5</f>
-        <v>-50.0</v>
+        <v>-14.0</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!F5</f>
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G5</f>
-        <v>0.095</v>
+        <v>-0.074***</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B6</f>
-        <v>(110.8)</v>
+        <v>(49.7)</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C6</f>
@@ -1583,11 +1583,11 @@
       </c>
       <c r="D15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D6</f>
-        <v>(3.45)</v>
+        <v>(3.24)</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E6</f>
-        <v>(103.3)</v>
+        <v>(31.2)</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!F6</f>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G6</f>
-        <v>(0.096)</v>
+        <v>(0.026)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B9</f>
-        <v>0.009</v>
+        <v>0.013</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C9</f>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D9</f>
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E9</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G9</f>
-        <v>0.014</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1664,27 +1664,27 @@
       </c>
       <c r="B19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!B10</f>
-        <v>1898.1</v>
+        <v>988.8</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!C10</f>
-        <v>593.5</v>
+        <v>593.4</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!D10</f>
-        <v>5.75</v>
+        <v>5.32</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!E10</f>
-        <v>1304.7</v>
+        <v>395.4</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!F10</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!G10</f>
-        <v>1.88</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!B5</f>
-        <v>-804.2***</v>
+        <v>-319.0***</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!C5</f>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!E5</f>
-        <v>-695.5***</v>
+        <v>-210.3***</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!F5</f>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!G5</f>
-        <v>-1.17***</v>
+        <v>-0.24***</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B24" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!B6</f>
-        <v>(113.3)</v>
+        <v>(50.9)</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!C6</f>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E24" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!E6</f>
-        <v>(100.8)</v>
+        <v>(30.3)</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!F6</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="G24" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!G6</f>
-        <v>(0.10)</v>
+        <v>(0.027)</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B27" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!B9</f>
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="C27" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!C9</f>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="E27" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!E9</f>
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!F9</f>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G27" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!G9</f>
-        <v>0.082</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B28" s="5" t="str">
         <f>[3]decomposition_main_te_1_0!B10</f>
-        <v>2272.4</v>
+        <v>1069.2</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>[3]decomposition_main_te_1_0!C10</f>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E28" s="5" t="str">
         <f>[3]decomposition_main_te_1_0!E10</f>
-        <v>1726.5</v>
+        <v>523.3</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>[3]decomposition_main_te_1_0!F10</f>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="G28" s="5" t="str">
         <f>[3]decomposition_main_te_1_0!G10</f>
-        <v>2.62</v>
+        <v>0.70</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!B5</f>
-        <v>-622.0***</v>
+        <v>-274.2***</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!C5</f>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!E5</f>
-        <v>-497.3***</v>
+        <v>-149.6***</v>
       </c>
       <c r="F32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!F5</f>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!G5</f>
-        <v>-0.71***</v>
+        <v>-0.17***</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B33" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!B6</f>
-        <v>(117.3)</v>
+        <v>(52.5)</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!C6</f>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="E33" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!E6</f>
-        <v>(103.1)</v>
+        <v>(31.1)</v>
       </c>
       <c r="F33" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!F6</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="G33" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!G6</f>
-        <v>(0.12)</v>
+        <v>(0.030)</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B36" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!B9</f>
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!C9</f>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="G36" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!G9</f>
-        <v>0.030</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B37" s="5" t="str">
         <f>[4]decomposition_main_te_1_1!B10</f>
-        <v>2272.4</v>
+        <v>1069.2</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>[4]decomposition_main_te_1_1!C10</f>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E37" s="5" t="str">
         <f>[4]decomposition_main_te_1_1!E10</f>
-        <v>1726.5</v>
+        <v>523.3</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>[4]decomposition_main_te_1_1!F10</f>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f>[4]decomposition_main_te_1_1!G10</f>
-        <v>2.62</v>
+        <v>0.70</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="B41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B5</f>
-        <v>-529.7***</v>
+        <v>-263.6***</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C5</f>
-        <v>-172.4***</v>
+        <v>-170.9***</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D5</f>
-        <v>-1.26</v>
+        <v>-1.28</v>
       </c>
       <c r="E41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E5</f>
-        <v>-389.4***</v>
+        <v>-124.8***</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F5</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G5</f>
-        <v>-0.62***</v>
+        <v>-0.16***</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2125,27 +2125,27 @@
       </c>
       <c r="B42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B6</f>
-        <v>(120.5)</v>
+        <v>(53.1)</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C6</f>
-        <v>(37.4)</v>
+        <v>(37.3)</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D6</f>
-        <v>(3.22)</v>
+        <v>(3.09)</v>
       </c>
       <c r="E42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E6</f>
-        <v>(110.2)</v>
+        <v>(32.4)</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F6</f>
-        <v>(0.025)</v>
+        <v>(0.024)</v>
       </c>
       <c r="G42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G6</f>
-        <v>(0.11)</v>
+        <v>(0.027)</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2154,53 +2154,53 @@
       </c>
       <c r="B43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B8</f>
-        <v>-61.5</v>
+        <v>-37.3</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C8</f>
-        <v>-30.6</v>
+        <v>-30.7</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D8</f>
-        <v>-4.52</v>
+        <v>-1.83</v>
       </c>
       <c r="E43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E8</f>
-        <v>-32.3</v>
+        <v>-7.91</v>
       </c>
       <c r="F43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F8</f>
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G8</f>
-        <v>-0.039</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B9</f>
-        <v>(124.6)</v>
+        <v>(56.4)</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C9</f>
-        <v>(42.0)</v>
+        <v>(41.9)</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D9</f>
-        <v>(2.78)</v>
+        <v>(2.93)</v>
       </c>
       <c r="E44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E9</f>
-        <v>(114.5)</v>
+        <v>(34.5)</v>
       </c>
       <c r="F44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F9</f>
-        <v>(0.023)</v>
+        <v>(0.024)</v>
       </c>
       <c r="G44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G9</f>
-        <v>(0.11)</v>
+        <v>(0.028)</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B12</f>
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="C47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C12</f>
@@ -2246,19 +2246,19 @@
       </c>
       <c r="D47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D12</f>
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E12</f>
-        <v>0.009</v>
+        <v>0.010</v>
       </c>
       <c r="F47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F12</f>
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="G47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G12</f>
-        <v>0.024</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2267,19 +2267,19 @@
       </c>
       <c r="B48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!B13</f>
-        <v>2077.4</v>
+        <v>1029.8</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!C13</f>
-        <v>567.5</v>
+        <v>565.8</v>
       </c>
       <c r="D48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!D13</f>
-        <v>7.51</v>
+        <v>7.06</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!E13</f>
-        <v>1509.9</v>
+        <v>463.9</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!F13</f>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!G13</f>
-        <v>2.28</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/censoring_imp.xlsx
+++ b/Tables/censoring_imp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2814A1-930E-4CDF-8C66-2487B984D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BAAB2-6C91-443D-B28C-7BDF53252071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
+    <workbookView xWindow="-16005" yWindow="-9510" windowWidth="14400" windowHeight="8175" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="censoring_imp" sheetId="1" r:id="rId1"/>
@@ -304,16 +304,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-234.8***</v>
+            <v>-234.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-191.7***</v>
+            <v>-191.8***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.025</v>
+            <v>0.089</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-74.7**</v>
+            <v>-74.5**</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.063***</v>
@@ -393,19 +393,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>988.8</v>
+            <v>988.6</v>
           </cell>
           <cell r="C10" t="str">
             <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.32</v>
+            <v>5.26</v>
           </cell>
           <cell r="E10" t="str">
-            <v>395.4</v>
+            <v>395.2</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.44</v>
+            <v>0.43</v>
           </cell>
           <cell r="G10" t="str">
             <v>0.61</v>
@@ -435,22 +435,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-190.0***</v>
+            <v>-189.9***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-207.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>1.82</v>
+            <v>1.89</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-14.0</v>
+            <v>-13.8</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0089</v>
+            <v>0.0094</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.074***</v>
+            <v>-0.073***</v>
           </cell>
         </row>
         <row r="6">
@@ -516,7 +516,7 @@
             <v>0.014</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.023</v>
+            <v>0.022</v>
           </cell>
         </row>
         <row r="10">
@@ -524,19 +524,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>988.8</v>
+            <v>988.6</v>
           </cell>
           <cell r="C10" t="str">
             <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.32</v>
+            <v>5.26</v>
           </cell>
           <cell r="E10" t="str">
-            <v>395.4</v>
+            <v>395.2</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.44</v>
+            <v>0.43</v>
           </cell>
           <cell r="G10" t="str">
             <v>0.61</v>
@@ -823,16 +823,16 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-263.6***</v>
+            <v>-262.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-170.9***</v>
+            <v>-170.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-1.28</v>
+            <v>-0.56</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-124.8***</v>
+            <v>-123.9***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.12***</v>
@@ -843,16 +843,16 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(53.1)</v>
+            <v>(53.3)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(37.3)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.09)</v>
+            <v>(3.30)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(32.4)</v>
+            <v>(32.5)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.024)</v>
@@ -863,22 +863,22 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-37.3</v>
+            <v>-39.5</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-30.7</v>
+            <v>-30.5</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-1.83</v>
+            <v>-2.71</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-7.91</v>
+            <v>-10.4</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.012</v>
+            <v>-0.014</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.0086</v>
+            <v>0.0060</v>
           </cell>
         </row>
         <row r="9">
@@ -889,10 +889,10 @@
             <v>(41.9)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(2.93)</v>
+            <v>(2.75)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(34.5)</v>
+            <v>(34.4)</v>
           </cell>
           <cell r="F9" t="str">
             <v>(0.024)</v>
@@ -923,22 +923,22 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.018</v>
+            <v>0.017</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.022</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.002</v>
+            <v>0.003</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.010</v>
+            <v>0.009</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.017</v>
+            <v>0.016</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.043</v>
+            <v>0.042</v>
           </cell>
         </row>
         <row r="13">
@@ -1350,19 +1350,19 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B5</f>
-        <v>-234.8***</v>
+        <v>-234.6***</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C5</f>
-        <v>-191.7***</v>
+        <v>-191.8***</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D5</f>
-        <v>0.025</v>
+        <v>0.089</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E5</f>
-        <v>-74.7**</v>
+        <v>-74.5**</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!F5</f>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!B10</f>
-        <v>988.8</v>
+        <v>988.6</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!C10</f>
@@ -1477,15 +1477,15 @@
       </c>
       <c r="D10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!D10</f>
-        <v>5.32</v>
+        <v>5.26</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!E10</f>
-        <v>395.4</v>
+        <v>395.2</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!F10</f>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!G10</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B5</f>
-        <v>-190.0***</v>
+        <v>-189.9***</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C5</f>
@@ -1553,19 +1553,19 @@
       </c>
       <c r="D14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D5</f>
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E5</f>
-        <v>-14.0</v>
+        <v>-13.8</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!F5</f>
-        <v>0.0089</v>
+        <v>0.0094</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G5</f>
-        <v>-0.074***</v>
+        <v>-0.073***</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G9</f>
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!B10</f>
-        <v>988.8</v>
+        <v>988.6</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!C10</f>
@@ -1672,15 +1672,15 @@
       </c>
       <c r="D19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!D10</f>
-        <v>5.32</v>
+        <v>5.26</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!E10</f>
-        <v>395.4</v>
+        <v>395.2</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!F10</f>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!G10</f>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="B41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B5</f>
-        <v>-263.6***</v>
+        <v>-262.6***</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C5</f>
-        <v>-170.9***</v>
+        <v>-170.7***</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D5</f>
-        <v>-1.28</v>
+        <v>-0.56</v>
       </c>
       <c r="E41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E5</f>
-        <v>-124.8***</v>
+        <v>-123.9***</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F5</f>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B6</f>
-        <v>(53.1)</v>
+        <v>(53.3)</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C6</f>
@@ -2133,11 +2133,11 @@
       </c>
       <c r="D42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D6</f>
-        <v>(3.09)</v>
+        <v>(3.30)</v>
       </c>
       <c r="E42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E6</f>
-        <v>(32.4)</v>
+        <v>(32.5)</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F6</f>
@@ -2154,27 +2154,27 @@
       </c>
       <c r="B43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B8</f>
-        <v>-37.3</v>
+        <v>-39.5</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C8</f>
-        <v>-30.7</v>
+        <v>-30.5</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D8</f>
-        <v>-1.83</v>
+        <v>-2.71</v>
       </c>
       <c r="E43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E8</f>
-        <v>-7.91</v>
+        <v>-10.4</v>
       </c>
       <c r="F43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F8</f>
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G8</f>
-        <v>0.0086</v>
+        <v>0.0060</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="D44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D9</f>
-        <v>(2.93)</v>
+        <v>(2.75)</v>
       </c>
       <c r="E44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E9</f>
-        <v>(34.5)</v>
+        <v>(34.4)</v>
       </c>
       <c r="F44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F9</f>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B12</f>
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="C47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C12</f>
@@ -2246,19 +2246,19 @@
       </c>
       <c r="D47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D12</f>
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E12</f>
-        <v>0.010</v>
+        <v>0.009</v>
       </c>
       <c r="F47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F12</f>
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="G47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G12</f>
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/Tables/censoring_imp.xlsx
+++ b/Tables/censoring_imp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BAAB2-6C91-443D-B28C-7BDF53252071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C411AE-97EC-4148-908D-6ABCD7C6C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16005" yWindow="-9510" windowWidth="14400" windowHeight="8175" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
+    <workbookView xWindow="-18495" yWindow="-12000" windowWidth="21600" windowHeight="11235" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="censoring_imp" sheetId="1" r:id="rId1"/>
@@ -304,19 +304,19 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-234.6***</v>
+            <v>-236.0***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-191.8***</v>
+            <v>-191.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.089</v>
+            <v>-0.63</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-74.5**</v>
+            <v>-75.9**</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.063***</v>
+            <v>-0.064***</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.14***</v>
@@ -333,7 +333,7 @@
             <v>(37.6)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(2.77)</v>
+            <v>(3.01)</v>
           </cell>
           <cell r="E6" t="str">
             <v>(30.5)</v>
@@ -385,7 +385,7 @@
             <v>0.019</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.042</v>
+            <v>0.043</v>
           </cell>
         </row>
         <row r="10">
@@ -393,19 +393,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>988.6</v>
+            <v>989.9</v>
           </cell>
           <cell r="C10" t="str">
             <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.26</v>
+            <v>5.96</v>
           </cell>
           <cell r="E10" t="str">
-            <v>395.2</v>
+            <v>396.5</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="G10" t="str">
             <v>0.61</v>
@@ -435,22 +435,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-189.9***</v>
+            <v>-191.2***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-207.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>1.89</v>
+            <v>1.17</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-13.8</v>
+            <v>-15.1</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0094</v>
+            <v>0.0083</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.073***</v>
+            <v>-0.076***</v>
           </cell>
         </row>
         <row r="6">
@@ -464,7 +464,7 @@
             <v>(37.4)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.24)</v>
+            <v>(3.45)</v>
           </cell>
           <cell r="E6" t="str">
             <v>(31.2)</v>
@@ -507,7 +507,7 @@
             <v>0.026</v>
           </cell>
           <cell r="D9" t="str">
-            <v>0.003</v>
+            <v>0.004</v>
           </cell>
           <cell r="E9" t="str">
             <v>0.009</v>
@@ -516,7 +516,7 @@
             <v>0.014</v>
           </cell>
           <cell r="G9" t="str">
-            <v>0.022</v>
+            <v>0.023</v>
           </cell>
         </row>
         <row r="10">
@@ -524,19 +524,19 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B10" t="str">
-            <v>988.6</v>
+            <v>989.9</v>
           </cell>
           <cell r="C10" t="str">
             <v>593.4</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5.26</v>
+            <v>5.96</v>
           </cell>
           <cell r="E10" t="str">
-            <v>395.2</v>
+            <v>396.5</v>
           </cell>
           <cell r="F10" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="G10" t="str">
             <v>0.61</v>
@@ -823,82 +823,82 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-262.6***</v>
+            <v>-264.9***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-170.7***</v>
+            <v>-169.6***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.56</v>
+            <v>-1.43</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-123.9***</v>
+            <v>-127.4***</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.12***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.16***</v>
+            <v>-0.17***</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(53.3)</v>
+            <v>(53.8)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(37.3)</v>
+            <v>(37.2)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(3.30)</v>
+            <v>(3.52)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(32.5)</v>
+            <v>(33.1)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.024)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.027)</v>
+            <v>(0.028)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-39.5</v>
+            <v>-42.4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-30.5</v>
+            <v>-29.1</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-2.71</v>
+            <v>-2.66</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-10.4</v>
+            <v>-14.6</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.014</v>
+            <v>-0.017</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.0060</v>
+            <v>0.0026</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(56.4)</v>
+            <v>(56.9)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(41.9)</v>
+            <v>(41.8)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(2.75)</v>
+            <v>(3.24)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(34.4)</v>
+            <v>(34.9)</v>
           </cell>
           <cell r="F9" t="str">
             <v>(0.024)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.028)</v>
+            <v>(0.029)</v>
           </cell>
         </row>
         <row r="11">
@@ -923,16 +923,16 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.017</v>
+            <v>0.018</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.022</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.003</v>
+            <v>0.002</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.009</v>
+            <v>0.010</v>
           </cell>
           <cell r="F12" t="str">
             <v>0.016</v>
@@ -943,19 +943,19 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>1029.8</v>
+            <v>1034.5</v>
           </cell>
           <cell r="C13" t="str">
-            <v>565.8</v>
+            <v>563.4</v>
           </cell>
           <cell r="D13" t="str">
-            <v>7.06</v>
+            <v>7.69</v>
           </cell>
           <cell r="E13" t="str">
-            <v>463.9</v>
+            <v>471.2</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.51</v>
+            <v>0.52</v>
           </cell>
           <cell r="G13" t="str">
             <v>0.66</v>
@@ -1350,23 +1350,23 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B5</f>
-        <v>-234.6***</v>
+        <v>-236.0***</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!C5</f>
-        <v>-191.8***</v>
+        <v>-191.7***</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D5</f>
-        <v>0.089</v>
+        <v>-0.63</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E5</f>
-        <v>-74.5**</v>
+        <v>-75.9**</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!F5</f>
-        <v>-0.063***</v>
+        <v>-0.064***</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G5</f>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!D6</f>
-        <v>(2.77)</v>
+        <v>(3.01)</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!E6</f>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G9" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!G9</f>
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!B10</f>
-        <v>988.6</v>
+        <v>989.9</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!C10</f>
@@ -1477,15 +1477,15 @@
       </c>
       <c r="D10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!D10</f>
-        <v>5.26</v>
+        <v>5.96</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!E10</f>
-        <v>395.2</v>
+        <v>396.5</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!F10</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>[1]decomposition_main_te_0_0!G10</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B5</f>
-        <v>-189.9***</v>
+        <v>-191.2***</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!C5</f>
@@ -1553,19 +1553,19 @@
       </c>
       <c r="D14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D5</f>
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E5</f>
-        <v>-13.8</v>
+        <v>-15.1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!F5</f>
-        <v>0.0094</v>
+        <v>0.0083</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G5</f>
-        <v>-0.073***</v>
+        <v>-0.076***</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D6</f>
-        <v>(3.24)</v>
+        <v>(3.45)</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E6</f>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!D9</f>
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!E9</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!G9</f>
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!B10</f>
-        <v>988.6</v>
+        <v>989.9</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!C10</f>
@@ -1672,15 +1672,15 @@
       </c>
       <c r="D19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!D10</f>
-        <v>5.26</v>
+        <v>5.96</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!E10</f>
-        <v>395.2</v>
+        <v>396.5</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!F10</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>[2]decomposition_main_te_0_1!G10</f>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="B41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B5</f>
-        <v>-262.6***</v>
+        <v>-264.9***</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C5</f>
-        <v>-170.7***</v>
+        <v>-169.6***</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D5</f>
-        <v>-0.56</v>
+        <v>-1.43</v>
       </c>
       <c r="E41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E5</f>
-        <v>-123.9***</v>
+        <v>-127.4***</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F5</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G5</f>
-        <v>-0.16***</v>
+        <v>-0.17***</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2125,27 +2125,27 @@
       </c>
       <c r="B42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B6</f>
-        <v>(53.3)</v>
+        <v>(53.8)</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C6</f>
-        <v>(37.3)</v>
+        <v>(37.2)</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D6</f>
-        <v>(3.30)</v>
+        <v>(3.52)</v>
       </c>
       <c r="E42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E6</f>
-        <v>(32.5)</v>
+        <v>(33.1)</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F6</f>
-        <v>(0.024)</v>
+        <v>(0.025)</v>
       </c>
       <c r="G42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G6</f>
-        <v>(0.027)</v>
+        <v>(0.028)</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2154,45 +2154,45 @@
       </c>
       <c r="B43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B8</f>
-        <v>-39.5</v>
+        <v>-42.4</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C8</f>
-        <v>-30.5</v>
+        <v>-29.1</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D8</f>
-        <v>-2.71</v>
+        <v>-2.66</v>
       </c>
       <c r="E43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E8</f>
-        <v>-10.4</v>
+        <v>-14.6</v>
       </c>
       <c r="F43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F8</f>
-        <v>-0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G8</f>
-        <v>0.0060</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B9</f>
-        <v>(56.4)</v>
+        <v>(56.9)</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C9</f>
-        <v>(41.9)</v>
+        <v>(41.8)</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D9</f>
-        <v>(2.75)</v>
+        <v>(3.24)</v>
       </c>
       <c r="E44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E9</f>
-        <v>(34.4)</v>
+        <v>(34.9)</v>
       </c>
       <c r="F44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F9</f>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G44" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!G9</f>
-        <v>(0.028)</v>
+        <v>(0.029)</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B12</f>
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="C47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!C12</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="D47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!D12</f>
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!E12</f>
-        <v>0.009</v>
+        <v>0.010</v>
       </c>
       <c r="F47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!F12</f>
@@ -2267,23 +2267,23 @@
       </c>
       <c r="B48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!B13</f>
-        <v>1029.8</v>
+        <v>1034.5</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!C13</f>
-        <v>565.8</v>
+        <v>563.4</v>
       </c>
       <c r="D48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!D13</f>
-        <v>7.06</v>
+        <v>7.69</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!E13</f>
-        <v>463.9</v>
+        <v>471.2</v>
       </c>
       <c r="F48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!F13</f>
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="G48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!G13</f>

--- a/Tables/censoring_imp.xlsx
+++ b/Tables/censoring_imp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C411AE-97EC-4148-908D-6ABCD7C6C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8473F42-0C13-4005-A91A-18CC4F468DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18495" yWindow="-12000" windowWidth="21600" windowHeight="11235" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
+    <workbookView xWindow="-24015" yWindow="-11640" windowWidth="21600" windowHeight="11295" xr2:uid="{C3D25F1B-BFB2-4591-A36B-F58AE69A34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="censoring_imp" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>APR</t>
   </si>
   <si>
-    <t xml:space="preserve">Forced commitment </t>
-  </si>
-  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -150,22 +147,25 @@
     <t>(30)</t>
   </si>
   <si>
-    <t>Choice commitment</t>
-  </si>
-  <si>
-    <t>Panel A : $\quad$ Control  = 0           $\quad\quad$                  Forced Commitment = 0</t>
-  </si>
-  <si>
-    <t>Panel B : $\quad$ Control  = 0         $\quad\quad$                    Forced Commitment = 1</t>
-  </si>
-  <si>
-    <t>Panel C : $\quad$ Control  = 1        $\quad\quad$                     Forced Commitment = 0</t>
-  </si>
-  <si>
-    <t>Panel D : $\quad$ Control  = 1       $\quad\quad$                      Forced Commitment = 1</t>
-  </si>
-  <si>
     <t>Panel E : $\quad$ Prediction with lasso-logit model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice </t>
+  </si>
+  <si>
+    <t>Mandatory structured</t>
+  </si>
+  <si>
+    <t>Panel A : $\quad$ Control  = 0           $\quad\quad$                 Mandatory structured  = 0</t>
+  </si>
+  <si>
+    <t>Panel B : $\quad$ Control  = 0         $\quad\quad$                    Mandatory structured = 1</t>
+  </si>
+  <si>
+    <t>Panel C : $\quad$ Control  = 1        $\quad\quad$                     Mandatory structured = 0</t>
+  </si>
+  <si>
+    <t>Panel D : $\quad$ Control  = 1       $\quad\quad$                      Mandatory structured = 1</t>
   </si>
 </sst>
 </file>
@@ -968,9 +968,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1008,7 +1008,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1114,7 +1114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1256,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F25623-A49A-42A8-9EBE-088BF1D1E7B9}">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="A2:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,7 +1306,7 @@
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="5" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]decomposition_main_te_0_0!B5</f>
@@ -1496,7 +1496,7 @@
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1510,22 +1510,22 @@
         <v/>
       </c>
       <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="14" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>[2]decomposition_main_te_0_1!B5</f>
@@ -1691,7 +1691,7 @@
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1705,27 +1705,27 @@
         <v/>
       </c>
       <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[3]decomposition_main_te_1_0!B5</f>
@@ -1875,7 +1875,7 @@
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1889,27 +1889,27 @@
         <v/>
       </c>
       <c r="B31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>[4]decomposition_main_te_1_1!B5</f>
@@ -2059,7 +2059,7 @@
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2069,30 +2069,30 @@
     </row>
     <row r="40" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B5</f>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B6</f>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>[5]decomposition_main_te_imppr!B12</f>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>[5]decomposition_main_te_imppr!B13</f>
